--- a/app/config/tables/example_individual_mode_registration_form/forms/example_individual_mode_registration_form/example_individual_mode_registration_form.xlsx
+++ b/app/config/tables/example_individual_mode_registration_form/forms/example_individual_mode_registration_form/example_individual_mode_registration_form.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/new_redcross_repos/redcross-app-designer/app/config/tables/individual_mode_registration/forms/individual_mode_registration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DemoRedCross\redcross-app-designer\app\config\tables\example_individual_mode_registration_form\forms\example_individual_mode_registration_form\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="989" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16224" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -135,9 +135,6 @@
     <t>Individual mode registration</t>
   </si>
   <si>
-    <t>individual_mode_registration</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -157,12 +154,15 @@
   </si>
   <si>
     <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
+  </si>
+  <si>
+    <t>example_individual_mode_registration_form</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -382,6 +382,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -656,17 +659,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="8.83203125" style="2"/>
-    <col min="4" max="4" width="8.83203125" style="3"/>
-    <col min="5" max="5" width="8.83203125" style="4"/>
-    <col min="6" max="7" width="8.83203125" style="5"/>
-    <col min="8" max="11" width="8.83203125" style="1"/>
+    <col min="1" max="2" width="8.796875" style="1"/>
+    <col min="3" max="3" width="8.796875" style="2"/>
+    <col min="4" max="4" width="8.796875" style="3"/>
+    <col min="5" max="5" width="8.796875" style="4"/>
+    <col min="6" max="7" width="8.796875" style="5"/>
+    <col min="8" max="11" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,13 +704,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -715,7 +718,7 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
@@ -736,13 +739,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -750,27 +753,27 @@
         <v>2</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>38</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -782,18 +785,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.83203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="41.796875" style="11" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
@@ -804,16 +807,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
@@ -822,16 +825,16 @@
       </c>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
@@ -840,7 +843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
@@ -862,14 +865,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="8.796875" style="2"/>
     <col min="2" max="2" width="45.5" style="3" customWidth="1"/>
-    <col min="3" max="12" width="8.83203125" style="1"/>
+    <col min="3" max="12" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -886,7 +889,7 @@
       <c r="K1" s="16"/>
       <c r="L1" s="17"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -908,9 +911,9 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
@@ -927,7 +930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
@@ -944,7 +947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
